--- a/文档/测试工作相关/End-to-end integration test/测试内容相关/2020/20200618/鹏博士合作宽带根产品补充开发需求（206446724）/鹏博士合作宽带根产品补充开发需求（206446724）测试结果.xlsx
+++ b/文档/测试工作相关/End-to-end integration test/测试内容相关/2020/20200618/鹏博士合作宽带根产品补充开发需求（206446724）/鹏博士合作宽带根产品补充开发需求（206446724）测试结果.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140"/>
@@ -10,15 +10,12 @@
     <sheet name="测试概况" sheetId="1" r:id="rId1"/>
     <sheet name="BUG详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>测试状态</t>
   </si>
@@ -33,7 +30,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备注</t>
@@ -50,7 +46,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>案例数</t>
@@ -84,7 +79,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需求内容</t>
@@ -197,7 +191,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>功能服务</t>
@@ -214,7 +207,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新装（</t>
@@ -231,7 +223,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -267,7 +258,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>预付费鹏博士宽带新装含</t>
@@ -284,7 +274,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>功能服务</t>
@@ -301,7 +290,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新装</t>
@@ -349,26 +337,46 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>测试通过/不通过</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WMX2020061905549749</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>WMX2020061905549744</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMX2020061905549864</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMX2020061905549863</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMX2020062005549865</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMX2020062005549866</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMX2020062005549867</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WMX2020062005549868</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
@@ -378,19 +386,16 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -400,16 +405,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -427,21 +430,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -460,38 +456,38 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -499,14 +495,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,10 +563,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,11 +635,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -904,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IT8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -934,64 +925,64 @@
   <sheetData>
     <row r="1" spans="1:254">
       <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
@@ -1233,48 +1224,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="34"/>
       <c r="G2" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="34">
         <v>7</v>
       </c>
       <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="31">
         <v>206446724</v>
       </c>
       <c r="M2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="31"/>
       <c r="U2" s="27"/>
@@ -1520,9 +1511,11 @@
         <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E3" s="29"/>
       <c r="F3" s="35"/>
       <c r="G3" s="38"/>
@@ -1782,9 +1775,11 @@
         <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="29"/>
       <c r="F4" s="35"/>
       <c r="G4" s="38"/>
@@ -1810,9 +1805,11 @@
         <v>62</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="29"/>
       <c r="F5" s="35"/>
       <c r="G5" s="38"/>
@@ -1835,13 +1832,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="35"/>
@@ -1868,9 +1865,11 @@
         <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="E7" s="29"/>
       <c r="F7" s="35"/>
       <c r="G7" s="38"/>
@@ -1896,9 +1895,11 @@
         <v>62</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E8" s="30"/>
       <c r="F8" s="36"/>
       <c r="G8" s="39"/>
@@ -1918,21 +1919,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O2:O8"/>
+    <mergeCell ref="P2:P8"/>
+    <mergeCell ref="Q2:Q8"/>
+    <mergeCell ref="R2:R8"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="J2:J8"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="H2:H8"/>
     <mergeCell ref="I2:I8"/>
-    <mergeCell ref="J2:J8"/>
     <mergeCell ref="T2:T8"/>
     <mergeCell ref="K2:K8"/>
     <mergeCell ref="L2:L8"/>
     <mergeCell ref="M2:M8"/>
     <mergeCell ref="N2:N8"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="P2:P8"/>
-    <mergeCell ref="Q2:Q8"/>
-    <mergeCell ref="R2:R8"/>
-    <mergeCell ref="S2:S8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1965,37 +1966,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="48">
@@ -2003,30 +2004,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="56.1" customHeight="1">
@@ -2034,28 +2035,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="25.5">
@@ -2063,30 +2064,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="38.25">
@@ -2094,34 +2095,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="36">
@@ -2129,34 +2130,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
